--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWOON1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\X\Developer\imca-raydeeoh\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C3F2F-AAA3-1447-8901-7C60B00C4A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82DFD0D-2691-40E4-89D0-C067E3FC301D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
+    <workbookView xWindow="16560" yWindow="0" windowWidth="21820" windowHeight="15780" xr2:uid="{C1F8DBFD-48D2-814D-8C9A-C834504E829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="73">
   <si>
     <t>Day</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>6:00 - 7:00</t>
   </si>
   <si>
     <t>Boioioing!</t>
@@ -260,18 +257,15 @@
   <si>
     <t>SPINCYCLES [replay]</t>
   </si>
-  <si>
-    <t>☆</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -321,12 +315,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF545454"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,11 +336,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -363,7 +351,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,20 +665,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B4220-E834-8A48-82FB-A9FB9AAA8E06}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="71.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,786 +695,701 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>42</v>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>44</v>
+      <c r="B14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>37</v>
+      <c r="B15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D17" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>55</v>
+      <c r="B23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>37</v>
+      <c r="B25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>61</v>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>37</v>
+      <c r="B33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
+      <c r="B34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>44</v>
+      <c r="B36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="10"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>74</v>
+      <c r="D40" t="s">
+        <v>38</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="10"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C42" t="s">
-        <v>59</v>
+      <c r="C42" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" t="s">
-        <v>39</v>
+      <c r="B43" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
-        <v>39</v>
+      <c r="B44" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>37</v>
+      <c r="B45" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E51" s="1"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
